--- a/FY25.xlsx
+++ b/FY25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmanuelIgbokwe\Desktop\TRACKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10F584E-306A-4BF3-BEDB-67A4F1C6514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF79542-9113-43C7-B536-B42E58F4E03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="444" firstSheet="1" activeTab="1" xr2:uid="{2082167A-ECB4-45DF-A7E4-42D262973E99}"/>
   </bookViews>
@@ -246,30 +246,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A300" authorId="0" shapeId="0" xr:uid="{8FF1E489-1E1F-4408-B1C3-BBCF2C257259}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Emmanuel Igbokwe:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-X</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A321" authorId="0" shapeId="0" xr:uid="{3A936C56-9AF0-4DB6-8139-6407773EBA99}">
       <text>
         <r>
@@ -415,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="85">
   <si>
     <t>Fund Balance</t>
   </si>
@@ -658,9 +634,6 @@
   </si>
   <si>
     <t>FY23 Q3</t>
-  </si>
-  <si>
-    <t>Einstein</t>
   </si>
   <si>
     <t>FY22 Q1</t>
@@ -4714,8 +4687,8 @@
   <dimension ref="A1:AH364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9061,7 +9034,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B41" s="16">
         <v>18770769</v>
@@ -12227,7 +12200,7 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B71" s="16">
         <f t="shared" si="21"/>
@@ -22941,7 +22914,7 @@
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B170" s="47">
         <v>720498</v>
@@ -23049,7 +23022,7 @@
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B171" s="47">
         <v>462003</v>
@@ -23157,7 +23130,7 @@
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B172" s="47">
         <v>424692</v>
@@ -23265,7 +23238,7 @@
     </row>
     <row r="173" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B173" s="47">
         <v>370039</v>
@@ -23373,7 +23346,7 @@
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B174" s="47">
         <v>446284</v>
@@ -23481,7 +23454,7 @@
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B175" s="47">
         <v>454193</v>
@@ -23589,7 +23562,7 @@
     </row>
     <row r="176" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B176" s="47">
         <v>325513</v>
@@ -23692,12 +23665,12 @@
         <v>0</v>
       </c>
       <c r="AH176" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="177" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B177" s="47">
         <v>334904</v>
@@ -23800,12 +23773,12 @@
         <v>0</v>
       </c>
       <c r="AH177" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B178" s="47">
         <v>559983</v>
@@ -23908,7 +23881,7 @@
         <v>0</v>
       </c>
       <c r="AH178" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="179" spans="1:34" x14ac:dyDescent="0.35">
@@ -33720,7 +33693,7 @@
         <v>0</v>
       </c>
       <c r="AH269" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="270" spans="1:34" x14ac:dyDescent="0.35">
@@ -33828,7 +33801,7 @@
         <v>0</v>
       </c>
       <c r="AH270" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="271" spans="1:34" x14ac:dyDescent="0.35">
@@ -33936,7 +33909,7 @@
         <v>548062</v>
       </c>
       <c r="AH271" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="272" spans="1:34" x14ac:dyDescent="0.35">
@@ -34044,7 +34017,7 @@
         <v>382</v>
       </c>
       <c r="AH272" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273" spans="1:34" x14ac:dyDescent="0.35">
@@ -34152,7 +34125,7 @@
         <v>224110</v>
       </c>
       <c r="AH273" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="274" spans="1:34" x14ac:dyDescent="0.35">
@@ -34260,7 +34233,7 @@
         <v>766706</v>
       </c>
       <c r="AH274" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="275" spans="1:34" x14ac:dyDescent="0.35">
@@ -34368,7 +34341,7 @@
         <v>0</v>
       </c>
       <c r="AH275" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="276" spans="1:34" x14ac:dyDescent="0.35">
@@ -34476,7 +34449,7 @@
         <v>0</v>
       </c>
       <c r="AH276" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="277" spans="1:34" x14ac:dyDescent="0.35">
@@ -34578,7 +34551,7 @@
         <v>0</v>
       </c>
       <c r="AH277" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="278" spans="1:34" x14ac:dyDescent="0.35">
@@ -34686,7 +34659,7 @@
         <v>0</v>
       </c>
       <c r="AH278" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:34" x14ac:dyDescent="0.35">
@@ -34794,7 +34767,7 @@
         <v>0</v>
       </c>
       <c r="AH279" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="280" spans="1:34" x14ac:dyDescent="0.35">
@@ -34902,7 +34875,7 @@
         <v>0</v>
       </c>
       <c r="AH280" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="281" spans="1:34" x14ac:dyDescent="0.35">
@@ -35010,7 +34983,7 @@
         <v>700</v>
       </c>
       <c r="AH281" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="282" spans="1:34" x14ac:dyDescent="0.35">
@@ -35118,7 +35091,7 @@
         <v>700</v>
       </c>
       <c r="AH282" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="283" spans="1:34" x14ac:dyDescent="0.35">
@@ -35226,7 +35199,7 @@
         <v>700</v>
       </c>
       <c r="AH283" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="284" spans="1:34" x14ac:dyDescent="0.35">
@@ -35332,7 +35305,7 @@
         <v>0</v>
       </c>
       <c r="AH284" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="285" spans="1:34" x14ac:dyDescent="0.35">
@@ -35438,7 +35411,7 @@
         <v>0</v>
       </c>
       <c r="AH285" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="286" spans="1:34" x14ac:dyDescent="0.35">
@@ -35544,7 +35517,7 @@
         <v>0</v>
       </c>
       <c r="AH286" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="287" spans="1:34" x14ac:dyDescent="0.35">
@@ -35652,7 +35625,7 @@
         <v>0</v>
       </c>
       <c r="AH287" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="288" spans="1:34" x14ac:dyDescent="0.35">
@@ -35760,7 +35733,7 @@
         <v>0</v>
       </c>
       <c r="AH288" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="289" spans="1:34" x14ac:dyDescent="0.35">
@@ -35868,7 +35841,7 @@
         <v>0</v>
       </c>
       <c r="AH289" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="290" spans="1:34" x14ac:dyDescent="0.35">
@@ -35976,7 +35949,7 @@
         <v>0</v>
       </c>
       <c r="AH290" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="291" spans="1:34" x14ac:dyDescent="0.35">
@@ -36084,7 +36057,7 @@
         <v>0</v>
       </c>
       <c r="AH291" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="292" spans="1:34" x14ac:dyDescent="0.35">
@@ -36192,7 +36165,7 @@
         <v>0</v>
       </c>
       <c r="AH292" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="293" spans="1:34" x14ac:dyDescent="0.35">
@@ -36301,7 +36274,7 @@
         <v>0</v>
       </c>
       <c r="AH293" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="294" spans="1:34" x14ac:dyDescent="0.35">
@@ -36410,7 +36383,7 @@
         <v>0</v>
       </c>
       <c r="AH294" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="295" spans="1:34" x14ac:dyDescent="0.35">
@@ -36519,7 +36492,7 @@
         <v>0</v>
       </c>
       <c r="AH295" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="296" spans="1:34" x14ac:dyDescent="0.35">
@@ -36627,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="AH296" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="297" spans="1:34" x14ac:dyDescent="0.35">
@@ -36735,7 +36708,7 @@
         <v>0</v>
       </c>
       <c r="AH297" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="298" spans="1:34" x14ac:dyDescent="0.35">
@@ -36843,7 +36816,7 @@
         <v>0</v>
       </c>
       <c r="AH298" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="299" spans="1:34" x14ac:dyDescent="0.35">
@@ -36951,7 +36924,7 @@
         <v>0</v>
       </c>
       <c r="AH299" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="300" spans="1:34" x14ac:dyDescent="0.35">
@@ -37059,7 +37032,7 @@
         <v>0</v>
       </c>
       <c r="AH300" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="301" spans="1:34" x14ac:dyDescent="0.35">
@@ -37167,7 +37140,7 @@
         <v>0</v>
       </c>
       <c r="AH301" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="302" spans="1:34" x14ac:dyDescent="0.35">
@@ -37275,7 +37248,7 @@
         <v>15800</v>
       </c>
       <c r="AH302" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="303" spans="1:34" x14ac:dyDescent="0.35">
@@ -37383,7 +37356,7 @@
         <v>16300</v>
       </c>
       <c r="AH303" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="304" spans="1:34" x14ac:dyDescent="0.35">
@@ -37491,7 +37464,7 @@
         <v>16300</v>
       </c>
       <c r="AH304" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="305" spans="1:34" x14ac:dyDescent="0.35">
@@ -37599,7 +37572,7 @@
         <v>0</v>
       </c>
       <c r="AH305" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="306" spans="1:34" x14ac:dyDescent="0.35">
@@ -37707,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="AH306" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="307" spans="1:34" x14ac:dyDescent="0.35">
@@ -37815,7 +37788,7 @@
         <v>0</v>
       </c>
       <c r="AH307" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="308" spans="1:34" x14ac:dyDescent="0.35">
@@ -37923,7 +37896,7 @@
         <v>0</v>
       </c>
       <c r="AH308" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="309" spans="1:34" x14ac:dyDescent="0.35">
@@ -38031,7 +38004,7 @@
         <v>0</v>
       </c>
       <c r="AH309" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="310" spans="1:34" x14ac:dyDescent="0.35">
@@ -38139,7 +38112,7 @@
         <v>0</v>
       </c>
       <c r="AH310" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="311" spans="1:34" x14ac:dyDescent="0.35">
@@ -38245,7 +38218,7 @@
         <v>0</v>
       </c>
       <c r="AH311" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="312" spans="1:34" x14ac:dyDescent="0.35">
@@ -38351,7 +38324,7 @@
         <v>0</v>
       </c>
       <c r="AH312" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="313" spans="1:34" x14ac:dyDescent="0.35">
@@ -38459,7 +38432,7 @@
         <v>0</v>
       </c>
       <c r="AH313" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="314" spans="1:34" x14ac:dyDescent="0.35">
@@ -38567,7 +38540,7 @@
         <v>0</v>
       </c>
       <c r="AH314" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="315" spans="1:34" x14ac:dyDescent="0.35">
@@ -38675,7 +38648,7 @@
         <v>0</v>
       </c>
       <c r="AH315" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="316" spans="1:34" x14ac:dyDescent="0.35">
@@ -38783,7 +38756,7 @@
         <v>0</v>
       </c>
       <c r="AH316" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="317" spans="1:34" x14ac:dyDescent="0.35">
@@ -38891,7 +38864,7 @@
         <v>0</v>
       </c>
       <c r="AH317" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="318" spans="1:34" x14ac:dyDescent="0.35">
@@ -38999,7 +38972,7 @@
         <v>0</v>
       </c>
       <c r="AH318" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="319" spans="1:34" x14ac:dyDescent="0.35">
@@ -39107,7 +39080,7 @@
         <v>694737</v>
       </c>
       <c r="AH319" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="320" spans="1:34" x14ac:dyDescent="0.35">
@@ -39215,7 +39188,7 @@
         <v>1072720</v>
       </c>
       <c r="AH320" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="321" spans="1:34" x14ac:dyDescent="0.35">
@@ -39323,7 +39296,7 @@
         <v>0</v>
       </c>
       <c r="AH321" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="322" spans="1:34" x14ac:dyDescent="0.35">
@@ -39431,7 +39404,7 @@
         <v>0</v>
       </c>
       <c r="AH322" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="323" spans="1:34" x14ac:dyDescent="0.35">
@@ -39539,7 +39512,7 @@
         <v>0</v>
       </c>
       <c r="AH323" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="324" spans="1:34" x14ac:dyDescent="0.35">
@@ -39647,7 +39620,7 @@
         <v>0</v>
       </c>
       <c r="AH324" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="325" spans="1:34" x14ac:dyDescent="0.35">
@@ -39755,7 +39728,7 @@
         <v>0</v>
       </c>
       <c r="AH325" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="326" spans="1:34" x14ac:dyDescent="0.35">
@@ -39863,7 +39836,7 @@
         <v>0</v>
       </c>
       <c r="AH326" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="327" spans="1:34" x14ac:dyDescent="0.35">
@@ -39971,7 +39944,7 @@
         <v>0</v>
       </c>
       <c r="AH327" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="328" spans="1:34" x14ac:dyDescent="0.35">
@@ -40079,7 +40052,7 @@
         <v>0</v>
       </c>
       <c r="AH328" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="329" spans="1:34" x14ac:dyDescent="0.35">
@@ -40187,7 +40160,7 @@
         <v>0</v>
       </c>
       <c r="AH329" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="330" spans="1:34" x14ac:dyDescent="0.35">
@@ -40295,7 +40268,7 @@
         <v>0</v>
       </c>
       <c r="AH330" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="331" spans="1:34" x14ac:dyDescent="0.35">
@@ -40403,7 +40376,7 @@
         <v>0</v>
       </c>
       <c r="AH331" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="332" spans="1:34" x14ac:dyDescent="0.35">
@@ -40511,7 +40484,7 @@
         <v>0</v>
       </c>
       <c r="AH332" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="333" spans="1:34" x14ac:dyDescent="0.35">
@@ -40619,7 +40592,7 @@
         <v>0</v>
       </c>
       <c r="AH333" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="334" spans="1:34" x14ac:dyDescent="0.35">
@@ -40727,7 +40700,7 @@
         <v>0</v>
       </c>
       <c r="AH334" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="335" spans="1:34" x14ac:dyDescent="0.35">
@@ -40835,7 +40808,7 @@
         <v>0</v>
       </c>
       <c r="AH335" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="336" spans="1:34" x14ac:dyDescent="0.35">
@@ -40943,7 +40916,7 @@
         <v>0</v>
       </c>
       <c r="AH336" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="337" spans="1:34" x14ac:dyDescent="0.35">
@@ -41051,7 +41024,7 @@
         <v>0</v>
       </c>
       <c r="AH337" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="338" spans="1:34" x14ac:dyDescent="0.35">
@@ -41157,7 +41130,7 @@
         <v>0</v>
       </c>
       <c r="AH338" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="339" spans="1:34" x14ac:dyDescent="0.35">
@@ -41263,7 +41236,7 @@
         <v>0</v>
       </c>
       <c r="AH339" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="340" spans="1:34" x14ac:dyDescent="0.35">
@@ -41369,7 +41342,7 @@
         <v>0</v>
       </c>
       <c r="AH340" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="341" spans="1:34" x14ac:dyDescent="0.35">
@@ -41475,7 +41448,7 @@
         <v>0</v>
       </c>
       <c r="AH341" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="342" spans="1:34" x14ac:dyDescent="0.35">
@@ -41581,7 +41554,7 @@
         <v>0</v>
       </c>
       <c r="AH342" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="343" spans="1:34" x14ac:dyDescent="0.35">
@@ -41687,7 +41660,7 @@
         <v>0</v>
       </c>
       <c r="AH343" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="344" spans="1:34" x14ac:dyDescent="0.35">
@@ -41795,7 +41768,7 @@
         <v>0</v>
       </c>
       <c r="AH344" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="345" spans="1:34" x14ac:dyDescent="0.35">
@@ -41903,7 +41876,7 @@
         <v>0</v>
       </c>
       <c r="AH345" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="346" spans="1:34" x14ac:dyDescent="0.35">
@@ -42011,12 +41984,12 @@
         <v>0</v>
       </c>
       <c r="AH346" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="347" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B347" s="47">
         <v>325513</v>
@@ -42119,12 +42092,12 @@
         <v>0</v>
       </c>
       <c r="AH347" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="348" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B348" s="47">
         <v>334904</v>
@@ -42227,12 +42200,12 @@
         <v>0</v>
       </c>
       <c r="AH348" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="349" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B349" s="47">
         <v>559983</v>
@@ -42335,7 +42308,7 @@
         <v>0</v>
       </c>
       <c r="AH349" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="350" spans="1:34" x14ac:dyDescent="0.35">
@@ -42443,7 +42416,7 @@
         <v>0</v>
       </c>
       <c r="AH350" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="351" spans="1:34" x14ac:dyDescent="0.35">
@@ -42551,7 +42524,7 @@
         <v>0</v>
       </c>
       <c r="AH351" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="352" spans="1:34" x14ac:dyDescent="0.35">
@@ -42659,7 +42632,7 @@
         <v>0</v>
       </c>
       <c r="AH352" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="353" spans="1:34" x14ac:dyDescent="0.35">
@@ -42767,7 +42740,7 @@
         <v>0</v>
       </c>
       <c r="AH353" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="354" spans="1:34" x14ac:dyDescent="0.35">
@@ -42873,7 +42846,7 @@
         <v>0</v>
       </c>
       <c r="AH354" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="355" spans="1:34" x14ac:dyDescent="0.35">
@@ -42979,7 +42952,7 @@
         <v>0</v>
       </c>
       <c r="AH355" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="356" spans="1:34" x14ac:dyDescent="0.35">
@@ -43087,7 +43060,7 @@
         <v>0</v>
       </c>
       <c r="AH356" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="357" spans="1:34" x14ac:dyDescent="0.35">
@@ -43195,7 +43168,7 @@
         <v>0</v>
       </c>
       <c r="AH357" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="358" spans="1:34" x14ac:dyDescent="0.35">
@@ -43301,7 +43274,7 @@
         <v>0</v>
       </c>
       <c r="AH358" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="359" spans="1:34" x14ac:dyDescent="0.35">
@@ -43409,7 +43382,7 @@
         <v>0</v>
       </c>
       <c r="AH359" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="360" spans="1:34" x14ac:dyDescent="0.35">
@@ -43517,7 +43490,7 @@
         <v>0</v>
       </c>
       <c r="AH360" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="361" spans="1:34" x14ac:dyDescent="0.35">
@@ -43625,7 +43598,7 @@
         <v>548062</v>
       </c>
       <c r="AH361" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="362" spans="1:34" x14ac:dyDescent="0.35">
@@ -43733,7 +43706,7 @@
         <v>0</v>
       </c>
       <c r="AH362" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="363" spans="1:34" x14ac:dyDescent="0.35">
@@ -43841,7 +43814,7 @@
         <v>0</v>
       </c>
       <c r="AH363" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="364" spans="1:34" x14ac:dyDescent="0.35">
@@ -43949,10 +43922,11 @@
         <v>0</v>
       </c>
       <c r="AH364" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH364" xr:uid="{CCD5917A-BC78-4573-A36A-38E4FD749BE2}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/FY25.xlsx
+++ b/FY25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EmmanuelIgbokwe\Desktop\TRACKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF79542-9113-43C7-B536-B42E58F4E03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E45D88-1820-45D4-A801-5B14978A17D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="444" firstSheet="1" activeTab="1" xr2:uid="{2082167A-ECB4-45DF-A7E4-42D262973E99}"/>
   </bookViews>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="86">
   <si>
     <t>Fund Balance</t>
   </si>
@@ -647,12 +647,15 @@
   <si>
     <t>The Living School</t>
   </si>
+  <si>
+    <t>FY26 Q1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -662,6 +665,7 @@
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0&quot; &quot;;[Red]&quot;(&quot;&quot;$&quot;#,##0&quot;)&quot;"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -744,7 +748,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,6 +785,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -798,7 +808,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -887,6 +897,14 @@
     <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4684,11 +4702,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD5917A-BC78-4573-A36A-38E4FD749BE2}">
-  <dimension ref="A1:AH364"/>
+  <dimension ref="A1:AI393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A364"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A365" sqref="A365:XFD393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42635,7 +42653,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="353" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>58</v>
       </c>
@@ -42743,7 +42761,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="354" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>58</v>
       </c>
@@ -42849,7 +42867,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="355" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>58</v>
       </c>
@@ -42955,7 +42973,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="356" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>58</v>
       </c>
@@ -43063,7 +43081,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="357" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>58</v>
       </c>
@@ -43171,7 +43189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="358" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>58</v>
       </c>
@@ -43277,7 +43295,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="359" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>60</v>
       </c>
@@ -43385,7 +43403,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="360" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>60</v>
       </c>
@@ -43493,7 +43511,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="361" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>60</v>
       </c>
@@ -43601,7 +43619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="362" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>61</v>
       </c>
@@ -43709,7 +43727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="363" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
         <v>61</v>
       </c>
@@ -43817,7 +43835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="364" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>61</v>
       </c>
@@ -43923,6 +43941,3166 @@
       </c>
       <c r="AH364" s="3" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="365" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A365" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B365" s="67">
+        <v>3166568</v>
+      </c>
+      <c r="C365" s="68">
+        <f>O365/R365</f>
+        <v>1.4153922896858937</v>
+      </c>
+      <c r="D365" s="69">
+        <f>N365/K365</f>
+        <v>9.1507984028786515E-2</v>
+      </c>
+      <c r="E365" s="69">
+        <f>I365/L365</f>
+        <v>10.659373011070597</v>
+      </c>
+      <c r="F365" s="70">
+        <f>H365/((R365-S365)/365)</f>
+        <v>463.5675423757296</v>
+      </c>
+      <c r="G365" s="67">
+        <v>0</v>
+      </c>
+      <c r="H365" s="67">
+        <v>2834144</v>
+      </c>
+      <c r="I365" s="67">
+        <v>3399839</v>
+      </c>
+      <c r="J365" s="67">
+        <v>85682</v>
+      </c>
+      <c r="K365" s="67">
+        <v>3485521</v>
+      </c>
+      <c r="L365" s="67">
+        <v>318953</v>
+      </c>
+      <c r="M365" s="67">
+        <v>0</v>
+      </c>
+      <c r="N365" s="67">
+        <v>318953</v>
+      </c>
+      <c r="O365" s="67">
+        <v>3166568</v>
+      </c>
+      <c r="P365" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q365" s="67">
+        <v>3166568</v>
+      </c>
+      <c r="R365" s="67">
+        <v>2237237</v>
+      </c>
+      <c r="S365" s="67">
+        <v>5712</v>
+      </c>
+      <c r="T365" s="67">
+        <v>-405148</v>
+      </c>
+      <c r="U365" s="67">
+        <v>977562</v>
+      </c>
+      <c r="V365" s="67">
+        <v>683487</v>
+      </c>
+      <c r="W365" s="67">
+        <v>361096</v>
+      </c>
+      <c r="X365" s="67">
+        <v>2022146</v>
+      </c>
+      <c r="Y365" s="67">
+        <v>1146955</v>
+      </c>
+      <c r="Z365" s="67">
+        <v>221902</v>
+      </c>
+      <c r="AA365" s="67">
+        <v>112208</v>
+      </c>
+      <c r="AB365" s="67">
+        <v>205997</v>
+      </c>
+      <c r="AC365" s="67">
+        <v>359013</v>
+      </c>
+      <c r="AD365" s="67">
+        <v>150324</v>
+      </c>
+      <c r="AE365" s="67">
+        <v>5712</v>
+      </c>
+      <c r="AF365" s="67">
+        <v>35125</v>
+      </c>
+      <c r="AG365" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH365" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI365" s="71"/>
+    </row>
+    <row r="366" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A366" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B366" s="67">
+        <v>11442996</v>
+      </c>
+      <c r="C366" s="68">
+        <f>O366/R366</f>
+        <v>2.4449193189178255</v>
+      </c>
+      <c r="D366" s="69">
+        <f>N366/K366</f>
+        <v>0.14785784807334487</v>
+      </c>
+      <c r="E366" s="69">
+        <f>I366/L366</f>
+        <v>21.386790193457529</v>
+      </c>
+      <c r="F366" s="70">
+        <f>H366/((R366-S366)/365)</f>
+        <v>662.86714299431765</v>
+      </c>
+      <c r="G366" s="67">
+        <v>0</v>
+      </c>
+      <c r="H366" s="67">
+        <v>8094781</v>
+      </c>
+      <c r="I366" s="67">
+        <v>10448110</v>
+      </c>
+      <c r="J366" s="67">
+        <v>2980396</v>
+      </c>
+      <c r="K366" s="67">
+        <v>13428506</v>
+      </c>
+      <c r="L366" s="67">
+        <v>488531</v>
+      </c>
+      <c r="M366" s="67">
+        <v>1496978</v>
+      </c>
+      <c r="N366" s="67">
+        <v>1985510</v>
+      </c>
+      <c r="O366" s="67">
+        <v>11362298</v>
+      </c>
+      <c r="P366" s="67">
+        <v>80698</v>
+      </c>
+      <c r="Q366" s="67">
+        <v>11442996</v>
+      </c>
+      <c r="R366" s="67">
+        <v>4647310</v>
+      </c>
+      <c r="S366" s="67">
+        <v>190014</v>
+      </c>
+      <c r="T366" s="67">
+        <v>-4165733</v>
+      </c>
+      <c r="U366" s="67">
+        <v>4319227</v>
+      </c>
+      <c r="V366" s="67">
+        <v>1647669</v>
+      </c>
+      <c r="W366" s="67">
+        <v>0</v>
+      </c>
+      <c r="X366" s="67">
+        <v>5966896</v>
+      </c>
+      <c r="Y366" s="67">
+        <v>1848361</v>
+      </c>
+      <c r="Z366" s="67">
+        <v>677431</v>
+      </c>
+      <c r="AA366" s="67">
+        <v>350170</v>
+      </c>
+      <c r="AB366" s="67">
+        <v>365392</v>
+      </c>
+      <c r="AC366" s="67">
+        <v>627003</v>
+      </c>
+      <c r="AD366" s="67">
+        <v>474210</v>
+      </c>
+      <c r="AE366" s="67">
+        <v>190014</v>
+      </c>
+      <c r="AF366" s="67">
+        <v>114730</v>
+      </c>
+      <c r="AG366" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH366" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI366" s="71"/>
+    </row>
+    <row r="367" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A367" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B367" s="67">
+        <v>15023016</v>
+      </c>
+      <c r="C367" s="68">
+        <f>O367/R367</f>
+        <v>5.1601301351153737</v>
+      </c>
+      <c r="D367" s="69">
+        <f>N367/K367</f>
+        <v>5.1861358450388438E-2</v>
+      </c>
+      <c r="E367" s="69">
+        <f>I367/L367</f>
+        <v>19.557762009158484</v>
+      </c>
+      <c r="F367" s="70">
+        <f>H367/((R367-S367)/365)</f>
+        <v>1829.7994049212125</v>
+      </c>
+      <c r="G367" s="67">
+        <v>62786</v>
+      </c>
+      <c r="H367" s="67">
+        <v>14535365</v>
+      </c>
+      <c r="I367" s="67">
+        <v>15076492</v>
+      </c>
+      <c r="J367" s="67">
+        <v>768253</v>
+      </c>
+      <c r="K367" s="67">
+        <v>15844745</v>
+      </c>
+      <c r="L367" s="67">
+        <v>770870</v>
+      </c>
+      <c r="M367" s="67">
+        <v>50860</v>
+      </c>
+      <c r="N367" s="67">
+        <v>821730</v>
+      </c>
+      <c r="O367" s="67">
+        <v>14961529</v>
+      </c>
+      <c r="P367" s="67">
+        <v>61487</v>
+      </c>
+      <c r="Q367" s="67">
+        <v>15023016</v>
+      </c>
+      <c r="R367" s="67">
+        <v>2899448</v>
+      </c>
+      <c r="S367" s="67">
+        <v>0</v>
+      </c>
+      <c r="T367" s="67">
+        <v>-1663166</v>
+      </c>
+      <c r="U367" s="67">
+        <v>1724315</v>
+      </c>
+      <c r="V367" s="67">
+        <v>800265</v>
+      </c>
+      <c r="W367" s="67">
+        <v>0</v>
+      </c>
+      <c r="X367" s="67">
+        <v>2524579</v>
+      </c>
+      <c r="Y367" s="67">
+        <v>1112352</v>
+      </c>
+      <c r="Z367" s="67">
+        <v>477187</v>
+      </c>
+      <c r="AA367" s="67">
+        <v>256132</v>
+      </c>
+      <c r="AB367" s="67">
+        <v>131331</v>
+      </c>
+      <c r="AC367" s="67">
+        <v>469985</v>
+      </c>
+      <c r="AD367" s="67">
+        <v>210966</v>
+      </c>
+      <c r="AE367" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF367" s="67">
+        <v>241495</v>
+      </c>
+      <c r="AG367" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH367" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI367" s="71"/>
+    </row>
+    <row r="368" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A368" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B368" s="67">
+        <v>31805961</v>
+      </c>
+      <c r="C368" s="68">
+        <f>O368/R368</f>
+        <v>1.1151838303065333</v>
+      </c>
+      <c r="D368" s="69">
+        <f>N368/K368</f>
+        <v>0.14129186784366826</v>
+      </c>
+      <c r="E368" s="69">
+        <f>I368/L368</f>
+        <v>6.5574961170082577</v>
+      </c>
+      <c r="F368" s="70">
+        <f>H368/((R368-S368)/365)</f>
+        <v>470.97103099552425</v>
+      </c>
+      <c r="G368" s="67">
+        <v>459561</v>
+      </c>
+      <c r="H368" s="67">
+        <v>25913350</v>
+      </c>
+      <c r="I368" s="67">
+        <v>33919029</v>
+      </c>
+      <c r="J368" s="67">
+        <v>3120286</v>
+      </c>
+      <c r="K368" s="67">
+        <v>37039315</v>
+      </c>
+      <c r="L368" s="67">
+        <v>5172558</v>
+      </c>
+      <c r="M368" s="67">
+        <v>60796</v>
+      </c>
+      <c r="N368" s="67">
+        <v>5233354</v>
+      </c>
+      <c r="O368" s="67">
+        <v>22395909</v>
+      </c>
+      <c r="P368" s="67">
+        <v>9410052</v>
+      </c>
+      <c r="Q368" s="67">
+        <v>31805961</v>
+      </c>
+      <c r="R368" s="67">
+        <v>20082706</v>
+      </c>
+      <c r="S368" s="67">
+        <v>0</v>
+      </c>
+      <c r="T368" s="67">
+        <v>-3997000</v>
+      </c>
+      <c r="U368" s="67">
+        <v>10204112</v>
+      </c>
+      <c r="V368" s="67">
+        <v>7619046</v>
+      </c>
+      <c r="W368" s="67">
+        <v>2236730</v>
+      </c>
+      <c r="X368" s="67">
+        <v>20059888</v>
+      </c>
+      <c r="Y368" s="67">
+        <v>8398803</v>
+      </c>
+      <c r="Z368" s="67">
+        <v>3380467</v>
+      </c>
+      <c r="AA368" s="67">
+        <v>552028</v>
+      </c>
+      <c r="AB368" s="67">
+        <v>1058284</v>
+      </c>
+      <c r="AC368" s="67">
+        <v>4587295</v>
+      </c>
+      <c r="AD368" s="67">
+        <v>1436682</v>
+      </c>
+      <c r="AE368" s="67">
+        <v>278660</v>
+      </c>
+      <c r="AF368" s="67">
+        <v>331827</v>
+      </c>
+      <c r="AG368" s="67">
+        <v>58660</v>
+      </c>
+      <c r="AH368" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI368" s="71"/>
+    </row>
+    <row r="369" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A369" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B369" s="67">
+        <v>6321467</v>
+      </c>
+      <c r="C369" s="68">
+        <f>O369/R369</f>
+        <v>0.93493393754700393</v>
+      </c>
+      <c r="D369" s="69">
+        <f>N369/K369</f>
+        <v>0.25877230524833927</v>
+      </c>
+      <c r="E369" s="69">
+        <f>I369/L369</f>
+        <v>3.7055372065972874</v>
+      </c>
+      <c r="F369" s="70">
+        <f>H369/((R369-S369)/365)</f>
+        <v>405.0603348604397</v>
+      </c>
+      <c r="G369" s="67">
+        <v>249738</v>
+      </c>
+      <c r="H369" s="67">
+        <v>7485778</v>
+      </c>
+      <c r="I369" s="67">
+        <v>8177776</v>
+      </c>
+      <c r="J369" s="67">
+        <v>350598</v>
+      </c>
+      <c r="K369" s="67">
+        <v>8528374</v>
+      </c>
+      <c r="L369" s="67">
+        <v>2206907</v>
+      </c>
+      <c r="M369" s="67">
+        <v>0</v>
+      </c>
+      <c r="N369" s="67">
+        <v>2206907</v>
+      </c>
+      <c r="O369" s="67">
+        <v>6321467</v>
+      </c>
+      <c r="P369" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q369" s="67">
+        <v>6321467</v>
+      </c>
+      <c r="R369" s="67">
+        <v>6761405</v>
+      </c>
+      <c r="S369" s="67">
+        <v>15968</v>
+      </c>
+      <c r="T369" s="67">
+        <v>-343618</v>
+      </c>
+      <c r="U369" s="67">
+        <v>3186371</v>
+      </c>
+      <c r="V369" s="67">
+        <v>1689545</v>
+      </c>
+      <c r="W369" s="67">
+        <v>253282</v>
+      </c>
+      <c r="X369" s="67">
+        <v>5129198</v>
+      </c>
+      <c r="Y369" s="67">
+        <v>2922615</v>
+      </c>
+      <c r="Z369" s="67">
+        <v>1059411</v>
+      </c>
+      <c r="AA369" s="67">
+        <v>479763</v>
+      </c>
+      <c r="AB369" s="67">
+        <v>789460</v>
+      </c>
+      <c r="AC369" s="67">
+        <v>766730</v>
+      </c>
+      <c r="AD369" s="67">
+        <v>625166</v>
+      </c>
+      <c r="AE369" s="67">
+        <v>15968</v>
+      </c>
+      <c r="AF369" s="67">
+        <v>102292</v>
+      </c>
+      <c r="AG369" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH369" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI369" s="71"/>
+    </row>
+    <row r="370" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A370" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B370" s="67">
+        <v>10204983</v>
+      </c>
+      <c r="C370" s="68">
+        <f>O370/R370</f>
+        <v>2.394562351644824</v>
+      </c>
+      <c r="D370" s="69">
+        <f>N370/K370</f>
+        <v>9.8468038010523687E-2</v>
+      </c>
+      <c r="E370" s="69">
+        <f>I370/L370</f>
+        <v>7.5505459713139649</v>
+      </c>
+      <c r="F370" s="70">
+        <f>H370/((R370-S370)/365)</f>
+        <v>651.68861627150648</v>
+      </c>
+      <c r="G370" s="67">
+        <v>0</v>
+      </c>
+      <c r="H370" s="67">
+        <v>7609102</v>
+      </c>
+      <c r="I370" s="67">
+        <v>8415982</v>
+      </c>
+      <c r="J370" s="67">
+        <v>2903620</v>
+      </c>
+      <c r="K370" s="67">
+        <v>11319602</v>
+      </c>
+      <c r="L370" s="67">
+        <v>1114619</v>
+      </c>
+      <c r="M370" s="67">
+        <v>0</v>
+      </c>
+      <c r="N370" s="67">
+        <v>1114619</v>
+      </c>
+      <c r="O370" s="67">
+        <v>10204983</v>
+      </c>
+      <c r="P370" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q370" s="67">
+        <v>10204983</v>
+      </c>
+      <c r="R370" s="67">
+        <v>4261732</v>
+      </c>
+      <c r="S370" s="67">
+        <v>0</v>
+      </c>
+      <c r="T370" s="67">
+        <v>-873310</v>
+      </c>
+      <c r="U370" s="67">
+        <v>2862380</v>
+      </c>
+      <c r="V370" s="67">
+        <v>934045</v>
+      </c>
+      <c r="W370" s="67">
+        <v>127750</v>
+      </c>
+      <c r="X370" s="67">
+        <v>3924174</v>
+      </c>
+      <c r="Y370" s="67">
+        <v>2042645</v>
+      </c>
+      <c r="Z370" s="67">
+        <v>841067</v>
+      </c>
+      <c r="AA370" s="67">
+        <v>220813</v>
+      </c>
+      <c r="AB370" s="67">
+        <v>187315</v>
+      </c>
+      <c r="AC370" s="67">
+        <v>218074</v>
+      </c>
+      <c r="AD370" s="67">
+        <v>447264</v>
+      </c>
+      <c r="AE370" s="67">
+        <v>148460</v>
+      </c>
+      <c r="AF370" s="67">
+        <v>104349</v>
+      </c>
+      <c r="AG370" s="67">
+        <v>51745</v>
+      </c>
+      <c r="AH370" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI370" s="71"/>
+    </row>
+    <row r="371" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A371" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B371" s="67">
+        <v>24117981</v>
+      </c>
+      <c r="C371" s="68">
+        <f>O371/R371</f>
+        <v>11.027157692966576</v>
+      </c>
+      <c r="D371" s="69">
+        <f>N371/K371</f>
+        <v>1.5770858151117693E-2</v>
+      </c>
+      <c r="E371" s="69">
+        <f>I371/L371</f>
+        <v>61.842194195458212</v>
+      </c>
+      <c r="F371" s="70">
+        <f>H371/((R371-S371)/365)</f>
+        <v>3699.5362574832279</v>
+      </c>
+      <c r="G371" s="67">
+        <v>348171</v>
+      </c>
+      <c r="H371" s="67">
+        <v>21891423</v>
+      </c>
+      <c r="I371" s="67">
+        <v>23899287</v>
+      </c>
+      <c r="J371" s="67">
+        <v>605150</v>
+      </c>
+      <c r="K371" s="67">
+        <v>24504437</v>
+      </c>
+      <c r="L371" s="67">
+        <v>386456</v>
+      </c>
+      <c r="M371" s="67">
+        <v>0</v>
+      </c>
+      <c r="N371" s="67">
+        <v>386456</v>
+      </c>
+      <c r="O371" s="67">
+        <v>23816786</v>
+      </c>
+      <c r="P371" s="67">
+        <v>301195</v>
+      </c>
+      <c r="Q371" s="67">
+        <v>24117981</v>
+      </c>
+      <c r="R371" s="67">
+        <v>2159830</v>
+      </c>
+      <c r="S371" s="67">
+        <v>0</v>
+      </c>
+      <c r="T371" s="67">
+        <v>-972979</v>
+      </c>
+      <c r="U371" s="67">
+        <v>1405375</v>
+      </c>
+      <c r="V371" s="67">
+        <v>751140</v>
+      </c>
+      <c r="W371" s="67">
+        <v>29870</v>
+      </c>
+      <c r="X371" s="67">
+        <v>2186385</v>
+      </c>
+      <c r="Y371" s="67">
+        <v>931058</v>
+      </c>
+      <c r="Z371" s="67">
+        <v>351070</v>
+      </c>
+      <c r="AA371" s="67">
+        <v>133370</v>
+      </c>
+      <c r="AB371" s="67">
+        <v>69727</v>
+      </c>
+      <c r="AC371" s="67">
+        <v>369182</v>
+      </c>
+      <c r="AD371" s="67">
+        <v>143989</v>
+      </c>
+      <c r="AE371" s="67">
+        <v>3336</v>
+      </c>
+      <c r="AF371" s="67">
+        <v>158098</v>
+      </c>
+      <c r="AG371" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH371" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI371" s="71"/>
+    </row>
+    <row r="372" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A372" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B372" s="67">
+        <v>2077807</v>
+      </c>
+      <c r="C372" s="68">
+        <f>O372/R372</f>
+        <v>0.55534746767270537</v>
+      </c>
+      <c r="D372" s="69">
+        <f>N372/K372</f>
+        <v>0.27838238450440966</v>
+      </c>
+      <c r="E372" s="69">
+        <f>I372/L372</f>
+        <v>5.0437624534427652</v>
+      </c>
+      <c r="F372" s="70">
+        <f>H372/((R372-S372)/365)</f>
+        <v>250.03925626559615</v>
+      </c>
+      <c r="G372" s="67">
+        <v>0</v>
+      </c>
+      <c r="H372" s="67">
+        <v>2525602</v>
+      </c>
+      <c r="I372" s="67">
+        <v>2807222</v>
+      </c>
+      <c r="J372" s="67">
+        <v>72152</v>
+      </c>
+      <c r="K372" s="67">
+        <v>2879374</v>
+      </c>
+      <c r="L372" s="67">
+        <v>556573</v>
+      </c>
+      <c r="M372" s="67">
+        <v>244994</v>
+      </c>
+      <c r="N372" s="67">
+        <v>801567</v>
+      </c>
+      <c r="O372" s="67">
+        <v>2052020</v>
+      </c>
+      <c r="P372" s="67">
+        <v>25787</v>
+      </c>
+      <c r="Q372" s="67">
+        <v>2077807</v>
+      </c>
+      <c r="R372" s="67">
+        <v>3695020</v>
+      </c>
+      <c r="S372" s="67">
+        <v>8220</v>
+      </c>
+      <c r="T372" s="67">
+        <v>-158019</v>
+      </c>
+      <c r="U372" s="67">
+        <v>2479243</v>
+      </c>
+      <c r="V372" s="67">
+        <v>1136644</v>
+      </c>
+      <c r="W372" s="67">
+        <v>225451</v>
+      </c>
+      <c r="X372" s="67">
+        <v>3841338</v>
+      </c>
+      <c r="Y372" s="67">
+        <v>1912907</v>
+      </c>
+      <c r="Z372" s="67">
+        <v>475772</v>
+      </c>
+      <c r="AA372" s="67">
+        <v>258202</v>
+      </c>
+      <c r="AB372" s="67">
+        <v>213851</v>
+      </c>
+      <c r="AC372" s="67">
+        <v>546887</v>
+      </c>
+      <c r="AD372" s="67">
+        <v>197538</v>
+      </c>
+      <c r="AE372" s="67">
+        <v>8220</v>
+      </c>
+      <c r="AF372" s="67">
+        <v>81643</v>
+      </c>
+      <c r="AG372" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH372" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI372" s="71"/>
+    </row>
+    <row r="373" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A373" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B373" s="67">
+        <v>6082841</v>
+      </c>
+      <c r="C373" s="68">
+        <f>O373/R373</f>
+        <v>2.1441859133863672</v>
+      </c>
+      <c r="D373" s="69">
+        <f>N373/K373</f>
+        <v>0.70588723925820918</v>
+      </c>
+      <c r="E373" s="69">
+        <f>I373/L373</f>
+        <v>1.4030160087270762</v>
+      </c>
+      <c r="F373" s="70">
+        <f>H373/((R373-S373)/365)</f>
+        <v>765.32560932605259</v>
+      </c>
+      <c r="G373" s="67">
+        <v>0</v>
+      </c>
+      <c r="H373" s="67">
+        <v>5714116</v>
+      </c>
+      <c r="I373" s="67">
+        <v>20482858</v>
+      </c>
+      <c r="J373" s="67">
+        <v>199145</v>
+      </c>
+      <c r="K373" s="67">
+        <v>20682003</v>
+      </c>
+      <c r="L373" s="67">
+        <v>14599162</v>
+      </c>
+      <c r="M373" s="67">
+        <v>0</v>
+      </c>
+      <c r="N373" s="67">
+        <v>14599162</v>
+      </c>
+      <c r="O373" s="67">
+        <v>5843299</v>
+      </c>
+      <c r="P373" s="67">
+        <v>239542</v>
+      </c>
+      <c r="Q373" s="67">
+        <v>6082841</v>
+      </c>
+      <c r="R373" s="67">
+        <v>2725183</v>
+      </c>
+      <c r="S373" s="67">
+        <v>0</v>
+      </c>
+      <c r="T373" s="67">
+        <v>0</v>
+      </c>
+      <c r="U373" s="67">
+        <v>1620243</v>
+      </c>
+      <c r="V373" s="67">
+        <v>1032085</v>
+      </c>
+      <c r="W373" s="67">
+        <v>176905</v>
+      </c>
+      <c r="X373" s="67">
+        <v>2829233</v>
+      </c>
+      <c r="Y373" s="67">
+        <v>971661</v>
+      </c>
+      <c r="Z373" s="67">
+        <v>486362</v>
+      </c>
+      <c r="AA373" s="67">
+        <v>257099</v>
+      </c>
+      <c r="AB373" s="67">
+        <v>323365</v>
+      </c>
+      <c r="AC373" s="67">
+        <v>474703</v>
+      </c>
+      <c r="AD373" s="67">
+        <v>146909</v>
+      </c>
+      <c r="AE373" s="67">
+        <v>7526</v>
+      </c>
+      <c r="AF373" s="67">
+        <v>57558</v>
+      </c>
+      <c r="AG373" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH373" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI373" s="71"/>
+    </row>
+    <row r="374" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A374" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B374" s="67">
+        <v>16791255</v>
+      </c>
+      <c r="C374" s="68">
+        <f>O374/R374</f>
+        <v>1.2004078794059863</v>
+      </c>
+      <c r="D374" s="69">
+        <f>N374/K374</f>
+        <v>8.1486866982380363E-2</v>
+      </c>
+      <c r="E374" s="69">
+        <f>I374/L374</f>
+        <v>12.031961113117543</v>
+      </c>
+      <c r="F374" s="70">
+        <f>H374/((R374-S374)/365)</f>
+        <v>399.62139593472631</v>
+      </c>
+      <c r="G374" s="67">
+        <v>0</v>
+      </c>
+      <c r="H374" s="67">
+        <v>15283390</v>
+      </c>
+      <c r="I374" s="67">
+        <v>17923459</v>
+      </c>
+      <c r="J374" s="67">
+        <v>357450</v>
+      </c>
+      <c r="K374" s="67">
+        <v>18280909</v>
+      </c>
+      <c r="L374" s="67">
+        <v>1489654</v>
+      </c>
+      <c r="M374" s="67">
+        <v>0</v>
+      </c>
+      <c r="N374" s="67">
+        <v>1489654</v>
+      </c>
+      <c r="O374" s="67">
+        <v>16791255</v>
+      </c>
+      <c r="P374" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q374" s="67">
+        <v>16791255</v>
+      </c>
+      <c r="R374" s="67">
+        <v>13987958</v>
+      </c>
+      <c r="S374" s="67">
+        <v>28652</v>
+      </c>
+      <c r="T374" s="67">
+        <v>0</v>
+      </c>
+      <c r="U374" s="67">
+        <v>5510458</v>
+      </c>
+      <c r="V374" s="67">
+        <v>4498981</v>
+      </c>
+      <c r="W374" s="67">
+        <v>1284558</v>
+      </c>
+      <c r="X374" s="67">
+        <v>11293997</v>
+      </c>
+      <c r="Y374" s="67">
+        <v>7068967</v>
+      </c>
+      <c r="Z374" s="67">
+        <v>2094381</v>
+      </c>
+      <c r="AA374" s="67">
+        <v>681824</v>
+      </c>
+      <c r="AB374" s="67">
+        <v>787119</v>
+      </c>
+      <c r="AC374" s="67">
+        <v>1729250</v>
+      </c>
+      <c r="AD374" s="67">
+        <v>1412896</v>
+      </c>
+      <c r="AE374" s="67">
+        <v>28652</v>
+      </c>
+      <c r="AF374" s="67">
+        <v>184869</v>
+      </c>
+      <c r="AG374" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH374" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI374" s="71"/>
+    </row>
+    <row r="375" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A375" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B375" s="67">
+        <v>16160507</v>
+      </c>
+      <c r="C375" s="68">
+        <f>O375/R375</f>
+        <v>1.5022716497883313</v>
+      </c>
+      <c r="D375" s="69">
+        <f>N375/K375</f>
+        <v>0.10258657421673287</v>
+      </c>
+      <c r="E375" s="69">
+        <f>I375/L375</f>
+        <v>9.0274959049803876</v>
+      </c>
+      <c r="F375" s="70">
+        <f>H375/((R375-S375)/365)</f>
+        <v>539.54784808196791</v>
+      </c>
+      <c r="G375" s="67">
+        <v>0</v>
+      </c>
+      <c r="H375" s="67">
+        <v>15901702</v>
+      </c>
+      <c r="I375" s="67">
+        <v>16677089</v>
+      </c>
+      <c r="J375" s="67">
+        <v>1330784</v>
+      </c>
+      <c r="K375" s="67">
+        <v>18007873</v>
+      </c>
+      <c r="L375" s="67">
+        <v>1847366</v>
+      </c>
+      <c r="M375" s="67">
+        <v>0</v>
+      </c>
+      <c r="N375" s="67">
+        <v>1847366</v>
+      </c>
+      <c r="O375" s="67">
+        <v>16160507</v>
+      </c>
+      <c r="P375" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q375" s="67">
+        <v>16160507</v>
+      </c>
+      <c r="R375" s="67">
+        <v>10757380</v>
+      </c>
+      <c r="S375" s="67">
+        <v>0</v>
+      </c>
+      <c r="T375" s="67">
+        <v>0</v>
+      </c>
+      <c r="U375" s="67">
+        <v>5266614</v>
+      </c>
+      <c r="V375" s="67">
+        <v>4769314</v>
+      </c>
+      <c r="W375" s="67">
+        <v>1143940</v>
+      </c>
+      <c r="X375" s="67">
+        <v>11179869</v>
+      </c>
+      <c r="Y375" s="67">
+        <v>5064343</v>
+      </c>
+      <c r="Z375" s="67">
+        <v>1338116</v>
+      </c>
+      <c r="AA375" s="67">
+        <v>494079</v>
+      </c>
+      <c r="AB375" s="67">
+        <v>608940</v>
+      </c>
+      <c r="AC375" s="67">
+        <v>1729265</v>
+      </c>
+      <c r="AD375" s="67">
+        <v>1182172</v>
+      </c>
+      <c r="AE375" s="67">
+        <v>131292</v>
+      </c>
+      <c r="AF375" s="67">
+        <v>209172</v>
+      </c>
+      <c r="AG375" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH375" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI375" s="71"/>
+    </row>
+    <row r="376" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A376" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B376" s="67">
+        <v>14725793</v>
+      </c>
+      <c r="C376" s="72">
+        <f>O376/R376</f>
+        <v>3.0455215503990607E-2</v>
+      </c>
+      <c r="D376" s="69">
+        <f>N376/K376</f>
+        <v>0.13131200571881521</v>
+      </c>
+      <c r="E376" s="69">
+        <f>I376/L376</f>
+        <v>14.366055720359679</v>
+      </c>
+      <c r="F376" s="70">
+        <f>H376/((R376-S376)/365)</f>
+        <v>150.4987761555129</v>
+      </c>
+      <c r="G376" s="67">
+        <v>116479</v>
+      </c>
+      <c r="H376" s="67">
+        <v>5342213</v>
+      </c>
+      <c r="I376" s="67">
+        <v>13971492</v>
+      </c>
+      <c r="J376" s="67">
+        <v>2980271</v>
+      </c>
+      <c r="K376" s="67">
+        <v>16951763</v>
+      </c>
+      <c r="L376" s="67">
+        <v>972535</v>
+      </c>
+      <c r="M376" s="67">
+        <v>1253435</v>
+      </c>
+      <c r="N376" s="67">
+        <v>2225970</v>
+      </c>
+      <c r="O376" s="67">
+        <v>394587</v>
+      </c>
+      <c r="P376" s="67">
+        <v>14331206</v>
+      </c>
+      <c r="Q376" s="67">
+        <v>14725793</v>
+      </c>
+      <c r="R376" s="67">
+        <v>12956303</v>
+      </c>
+      <c r="S376" s="67">
+        <v>0</v>
+      </c>
+      <c r="T376" s="67">
+        <v>-926193</v>
+      </c>
+      <c r="U376" s="67">
+        <v>5581000</v>
+      </c>
+      <c r="V376" s="67">
+        <v>4892737</v>
+      </c>
+      <c r="W376" s="67">
+        <v>1853356</v>
+      </c>
+      <c r="X376" s="67">
+        <v>12327093</v>
+      </c>
+      <c r="Y376" s="67">
+        <v>6660993</v>
+      </c>
+      <c r="Z376" s="67">
+        <v>1465300</v>
+      </c>
+      <c r="AA376" s="67">
+        <v>1101917</v>
+      </c>
+      <c r="AB376" s="67">
+        <v>1017769</v>
+      </c>
+      <c r="AC376" s="67">
+        <v>433616</v>
+      </c>
+      <c r="AD376" s="67">
+        <v>1883398</v>
+      </c>
+      <c r="AE376" s="67">
+        <v>75610</v>
+      </c>
+      <c r="AF376" s="67">
+        <v>317699</v>
+      </c>
+      <c r="AG376" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH376" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI376" s="71"/>
+    </row>
+    <row r="377" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A377" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B377" s="67">
+        <v>18180506</v>
+      </c>
+      <c r="C377" s="68">
+        <f>O377/R377</f>
+        <v>3.4901644708304294</v>
+      </c>
+      <c r="D377" s="69">
+        <f>N377/K377</f>
+        <v>4.878379038750047E-2</v>
+      </c>
+      <c r="E377" s="69">
+        <f>I377/L377</f>
+        <v>20.399326469326468</v>
+      </c>
+      <c r="F377" s="70">
+        <f>H377/((R377-S377)/365)</f>
+        <v>1316.4311027276497</v>
+      </c>
+      <c r="G377" s="67">
+        <v>99810</v>
+      </c>
+      <c r="H377" s="67">
+        <v>18747656</v>
+      </c>
+      <c r="I377" s="67">
+        <v>19020332</v>
+      </c>
+      <c r="J377" s="67">
+        <v>92574</v>
+      </c>
+      <c r="K377" s="67">
+        <v>19112906</v>
+      </c>
+      <c r="L377" s="67">
+        <v>932400</v>
+      </c>
+      <c r="M377" s="67">
+        <v>0</v>
+      </c>
+      <c r="N377" s="67">
+        <v>932400</v>
+      </c>
+      <c r="O377" s="67">
+        <v>18143798</v>
+      </c>
+      <c r="P377" s="67">
+        <v>36708</v>
+      </c>
+      <c r="Q377" s="67">
+        <v>18180506</v>
+      </c>
+      <c r="R377" s="67">
+        <v>5198551</v>
+      </c>
+      <c r="S377" s="67">
+        <v>486</v>
+      </c>
+      <c r="T377" s="67">
+        <v>-399777</v>
+      </c>
+      <c r="U377" s="67">
+        <v>2838142</v>
+      </c>
+      <c r="V377" s="67">
+        <v>1795186</v>
+      </c>
+      <c r="W377" s="67">
+        <v>137668</v>
+      </c>
+      <c r="X377" s="67">
+        <v>4770996</v>
+      </c>
+      <c r="Y377" s="67">
+        <v>2121337</v>
+      </c>
+      <c r="Z377" s="67">
+        <v>916615</v>
+      </c>
+      <c r="AA377" s="67">
+        <v>484562</v>
+      </c>
+      <c r="AB377" s="67">
+        <v>291888</v>
+      </c>
+      <c r="AC377" s="67">
+        <v>612044</v>
+      </c>
+      <c r="AD377" s="67">
+        <v>649889</v>
+      </c>
+      <c r="AE377" s="67">
+        <v>486</v>
+      </c>
+      <c r="AF377" s="67">
+        <v>121729</v>
+      </c>
+      <c r="AG377" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH377" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI377" s="71"/>
+    </row>
+    <row r="378" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A378" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B378" s="67">
+        <v>6257501</v>
+      </c>
+      <c r="C378" s="68">
+        <f>O378/R378</f>
+        <v>3.7092873545775831</v>
+      </c>
+      <c r="D378" s="69">
+        <f>N378/K378</f>
+        <v>6.0777974402732936E-2</v>
+      </c>
+      <c r="E378" s="69">
+        <f>I378/L378</f>
+        <v>15.832420004494615</v>
+      </c>
+      <c r="F378" s="70">
+        <f>H378/((R378-S378)/365)</f>
+        <v>1349.7471875811359</v>
+      </c>
+      <c r="G378" s="67">
+        <v>0</v>
+      </c>
+      <c r="H378" s="67">
+        <v>6238354</v>
+      </c>
+      <c r="I378" s="67">
+        <v>6411006</v>
+      </c>
+      <c r="J378" s="67">
+        <v>251424</v>
+      </c>
+      <c r="K378" s="67">
+        <v>6662430</v>
+      </c>
+      <c r="L378" s="67">
+        <v>404929</v>
+      </c>
+      <c r="M378" s="67">
+        <v>0</v>
+      </c>
+      <c r="N378" s="67">
+        <v>404929</v>
+      </c>
+      <c r="O378" s="67">
+        <v>6257501</v>
+      </c>
+      <c r="P378" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q378" s="67">
+        <v>6257501</v>
+      </c>
+      <c r="R378" s="67">
+        <v>1686982</v>
+      </c>
+      <c r="S378" s="67">
+        <v>0</v>
+      </c>
+      <c r="T378" s="67">
+        <v>-457646</v>
+      </c>
+      <c r="U378" s="67">
+        <v>904993</v>
+      </c>
+      <c r="V378" s="67">
+        <v>460152</v>
+      </c>
+      <c r="W378" s="67">
+        <v>69024</v>
+      </c>
+      <c r="X378" s="67">
+        <v>1434169</v>
+      </c>
+      <c r="Y378" s="67">
+        <v>690152</v>
+      </c>
+      <c r="Z378" s="67">
+        <v>169190</v>
+      </c>
+      <c r="AA378" s="67">
+        <v>242147</v>
+      </c>
+      <c r="AB378" s="67">
+        <v>132709</v>
+      </c>
+      <c r="AC378" s="67">
+        <v>242904</v>
+      </c>
+      <c r="AD378" s="67">
+        <v>164087</v>
+      </c>
+      <c r="AE378" s="67">
+        <v>15514</v>
+      </c>
+      <c r="AF378" s="67">
+        <v>30279</v>
+      </c>
+      <c r="AG378" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH378" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI378" s="71"/>
+    </row>
+    <row r="379" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A379" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B379" s="67">
+        <v>3320572</v>
+      </c>
+      <c r="C379" s="68">
+        <f>O379/R379</f>
+        <v>1.0491647285220123</v>
+      </c>
+      <c r="D379" s="69">
+        <f>N379/K379</f>
+        <v>0.20308095350778374</v>
+      </c>
+      <c r="E379" s="69">
+        <f>I379/L379</f>
+        <v>3.9120126685496164</v>
+      </c>
+      <c r="F379" s="70">
+        <f>H379/((R379-S379)/365)</f>
+        <v>278.52338615952766</v>
+      </c>
+      <c r="G379" s="67">
+        <v>0</v>
+      </c>
+      <c r="H379" s="67">
+        <v>2158863</v>
+      </c>
+      <c r="I379" s="67">
+        <v>3310306</v>
+      </c>
+      <c r="J379" s="67">
+        <v>856456</v>
+      </c>
+      <c r="K379" s="67">
+        <v>4166762</v>
+      </c>
+      <c r="L379" s="67">
+        <v>846190</v>
+      </c>
+      <c r="M379" s="67">
+        <v>0</v>
+      </c>
+      <c r="N379" s="67">
+        <v>846190</v>
+      </c>
+      <c r="O379" s="67">
+        <v>3110359</v>
+      </c>
+      <c r="P379" s="67">
+        <v>210213</v>
+      </c>
+      <c r="Q379" s="67">
+        <v>3320572</v>
+      </c>
+      <c r="R379" s="67">
+        <v>2964605</v>
+      </c>
+      <c r="S379" s="67">
+        <v>135453</v>
+      </c>
+      <c r="T379" s="67">
+        <v>-1897239</v>
+      </c>
+      <c r="U379" s="67">
+        <v>1475156</v>
+      </c>
+      <c r="V379" s="67">
+        <v>900554</v>
+      </c>
+      <c r="W379" s="67">
+        <v>86754</v>
+      </c>
+      <c r="X379" s="67">
+        <v>2462464</v>
+      </c>
+      <c r="Y379" s="67">
+        <v>1468924</v>
+      </c>
+      <c r="Z379" s="67">
+        <v>373771</v>
+      </c>
+      <c r="AA379" s="67">
+        <v>228335</v>
+      </c>
+      <c r="AB379" s="67">
+        <v>265150</v>
+      </c>
+      <c r="AC379" s="67">
+        <v>434151</v>
+      </c>
+      <c r="AD379" s="67">
+        <v>113435</v>
+      </c>
+      <c r="AE379" s="67">
+        <v>39433</v>
+      </c>
+      <c r="AF379" s="67">
+        <v>41406</v>
+      </c>
+      <c r="AG379" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH379" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI379" s="71"/>
+    </row>
+    <row r="380" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A380" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B380" s="67">
+        <v>7442544</v>
+      </c>
+      <c r="C380" s="68">
+        <f>O380/R380</f>
+        <v>4.7399515849527409</v>
+      </c>
+      <c r="D380" s="69">
+        <f>N380/K380</f>
+        <v>3.9662820093296351E-2</v>
+      </c>
+      <c r="E380" s="69">
+        <f>I380/L380</f>
+        <v>25.212528954011919</v>
+      </c>
+      <c r="F380" s="70">
+        <f>H380/((R380-S380)/365)</f>
+        <v>1709.7050197653377</v>
+      </c>
+      <c r="G380" s="67">
+        <v>103333</v>
+      </c>
+      <c r="H380" s="67">
+        <v>7354884</v>
+      </c>
+      <c r="I380" s="67">
+        <v>7749928</v>
+      </c>
+      <c r="J380" s="67">
+        <v>0</v>
+      </c>
+      <c r="K380" s="67">
+        <v>7749928</v>
+      </c>
+      <c r="L380" s="67">
+        <v>307384</v>
+      </c>
+      <c r="M380" s="67">
+        <v>0</v>
+      </c>
+      <c r="N380" s="67">
+        <v>307384</v>
+      </c>
+      <c r="O380" s="67">
+        <v>7442544</v>
+      </c>
+      <c r="P380" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q380" s="67">
+        <v>7442544</v>
+      </c>
+      <c r="R380" s="67">
+        <v>1570173</v>
+      </c>
+      <c r="S380" s="67">
+        <v>0</v>
+      </c>
+      <c r="T380" s="67">
+        <v>0</v>
+      </c>
+      <c r="U380" s="67">
+        <v>999621</v>
+      </c>
+      <c r="V380" s="67">
+        <v>535722</v>
+      </c>
+      <c r="W380" s="67">
+        <v>254560</v>
+      </c>
+      <c r="X380" s="67">
+        <v>1789903</v>
+      </c>
+      <c r="Y380" s="67">
+        <v>612672</v>
+      </c>
+      <c r="Z380" s="67">
+        <v>246717</v>
+      </c>
+      <c r="AA380" s="67">
+        <v>46858</v>
+      </c>
+      <c r="AB380" s="67">
+        <v>91575</v>
+      </c>
+      <c r="AC380" s="67">
+        <v>338922</v>
+      </c>
+      <c r="AD380" s="67">
+        <v>132139</v>
+      </c>
+      <c r="AE380" s="67">
+        <v>73746</v>
+      </c>
+      <c r="AF380" s="67">
+        <v>27545</v>
+      </c>
+      <c r="AG380" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH380" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI380" s="71"/>
+    </row>
+    <row r="381" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A381" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B381" s="67">
+        <v>38740250</v>
+      </c>
+      <c r="C381" s="68">
+        <f>O381/R381</f>
+        <v>2.9545940598078739</v>
+      </c>
+      <c r="D381" s="69">
+        <f>N381/K381</f>
+        <v>8.7982903344609245E-2</v>
+      </c>
+      <c r="E381" s="69">
+        <f>I381/L381</f>
+        <v>12.276199185346716</v>
+      </c>
+      <c r="F381" s="70">
+        <f>H381/((R381-S381)/365)</f>
+        <v>1064.94077396593</v>
+      </c>
+      <c r="G381" s="67">
+        <v>311476</v>
+      </c>
+      <c r="H381" s="67">
+        <v>37974796</v>
+      </c>
+      <c r="I381" s="67">
+        <v>41253529</v>
+      </c>
+      <c r="J381" s="67">
+        <v>1224019</v>
+      </c>
+      <c r="K381" s="67">
+        <v>42477548</v>
+      </c>
+      <c r="L381" s="67">
+        <v>3360448</v>
+      </c>
+      <c r="M381" s="67">
+        <v>376850</v>
+      </c>
+      <c r="N381" s="67">
+        <v>3737298</v>
+      </c>
+      <c r="O381" s="67">
+        <v>38428774</v>
+      </c>
+      <c r="P381" s="67">
+        <v>311476</v>
+      </c>
+      <c r="Q381" s="67">
+        <v>38740250</v>
+      </c>
+      <c r="R381" s="67">
+        <v>13006448</v>
+      </c>
+      <c r="S381" s="67">
+        <v>-9112</v>
+      </c>
+      <c r="T381" s="67">
+        <v>-1875593</v>
+      </c>
+      <c r="U381" s="67">
+        <v>6252365</v>
+      </c>
+      <c r="V381" s="67">
+        <v>3467180</v>
+      </c>
+      <c r="W381" s="67">
+        <v>1680007</v>
+      </c>
+      <c r="X381" s="67">
+        <v>11399553</v>
+      </c>
+      <c r="Y381" s="67">
+        <v>5634168</v>
+      </c>
+      <c r="Z381" s="67">
+        <v>1344486</v>
+      </c>
+      <c r="AA381" s="67">
+        <v>1221577</v>
+      </c>
+      <c r="AB381" s="67">
+        <v>623540</v>
+      </c>
+      <c r="AC381" s="67">
+        <v>2835781</v>
+      </c>
+      <c r="AD381" s="67">
+        <v>1103825</v>
+      </c>
+      <c r="AE381" s="67">
+        <v>39056</v>
+      </c>
+      <c r="AF381" s="67">
+        <v>204015</v>
+      </c>
+      <c r="AG381" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH381" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI381" s="71"/>
+    </row>
+    <row r="382" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A382" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B382" s="67">
+        <v>2479790</v>
+      </c>
+      <c r="C382" s="68">
+        <f>O382/R382</f>
+        <v>1.1658724798060642</v>
+      </c>
+      <c r="D382" s="69">
+        <f>N382/K382</f>
+        <v>0.19840974299098652</v>
+      </c>
+      <c r="E382" s="69">
+        <f>I382/L382</f>
+        <v>5.0382226726056452</v>
+      </c>
+      <c r="F382" s="70">
+        <f>H382/((R382-S382)/365)</f>
+        <v>449.37114551771094</v>
+      </c>
+      <c r="G382" s="67">
+        <v>337721</v>
+      </c>
+      <c r="H382" s="67">
+        <v>2262010</v>
+      </c>
+      <c r="I382" s="67">
+        <v>3092451</v>
+      </c>
+      <c r="J382" s="67">
+        <v>1137</v>
+      </c>
+      <c r="K382" s="67">
+        <v>3093588</v>
+      </c>
+      <c r="L382" s="67">
+        <v>613798</v>
+      </c>
+      <c r="M382" s="67">
+        <v>0</v>
+      </c>
+      <c r="N382" s="67">
+        <v>613798</v>
+      </c>
+      <c r="O382" s="67">
+        <v>2142068</v>
+      </c>
+      <c r="P382" s="67">
+        <v>337721</v>
+      </c>
+      <c r="Q382" s="67">
+        <v>2479790</v>
+      </c>
+      <c r="R382" s="67">
+        <v>1837309</v>
+      </c>
+      <c r="S382" s="67">
+        <v>0</v>
+      </c>
+      <c r="T382" s="67">
+        <v>-185541</v>
+      </c>
+      <c r="U382" s="67">
+        <v>1398897</v>
+      </c>
+      <c r="V382" s="67">
+        <v>746643</v>
+      </c>
+      <c r="W382" s="67">
+        <v>464907</v>
+      </c>
+      <c r="X382" s="67">
+        <v>2610447</v>
+      </c>
+      <c r="Y382" s="67">
+        <v>805777</v>
+      </c>
+      <c r="Z382" s="67">
+        <v>217198</v>
+      </c>
+      <c r="AA382" s="67">
+        <v>98710</v>
+      </c>
+      <c r="AB382" s="67">
+        <v>177353</v>
+      </c>
+      <c r="AC382" s="67">
+        <v>281285</v>
+      </c>
+      <c r="AD382" s="67">
+        <v>212301</v>
+      </c>
+      <c r="AE382" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF382" s="67">
+        <v>44685</v>
+      </c>
+      <c r="AG382" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH382" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI382" s="71"/>
+    </row>
+    <row r="383" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A383" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B383" s="67">
+        <v>7877842</v>
+      </c>
+      <c r="C383" s="68">
+        <f>O383/R383</f>
+        <v>3.0169570325844024</v>
+      </c>
+      <c r="D383" s="69">
+        <f>N383/K383</f>
+        <v>4.1860166428748569E-2</v>
+      </c>
+      <c r="E383" s="69">
+        <f>I383/L383</f>
+        <v>22.527182392678142</v>
+      </c>
+      <c r="F383" s="70">
+        <f>H383/((R383-S383)/365)</f>
+        <v>1064.529805793569</v>
+      </c>
+      <c r="G383" s="67">
+        <v>0</v>
+      </c>
+      <c r="H383" s="67">
+        <v>7437931</v>
+      </c>
+      <c r="I383" s="67">
+        <v>7753293</v>
+      </c>
+      <c r="J383" s="67">
+        <v>468724</v>
+      </c>
+      <c r="K383" s="67">
+        <v>8222017</v>
+      </c>
+      <c r="L383" s="67">
+        <v>344175</v>
+      </c>
+      <c r="M383" s="67">
+        <v>0</v>
+      </c>
+      <c r="N383" s="67">
+        <v>344175</v>
+      </c>
+      <c r="O383" s="67">
+        <v>7877842</v>
+      </c>
+      <c r="P383" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q383" s="67">
+        <v>7877842</v>
+      </c>
+      <c r="R383" s="67">
+        <v>2611188</v>
+      </c>
+      <c r="S383" s="67">
+        <v>60912</v>
+      </c>
+      <c r="T383" s="67">
+        <v>-852603</v>
+      </c>
+      <c r="U383" s="67">
+        <v>1941503</v>
+      </c>
+      <c r="V383" s="67">
+        <v>850568</v>
+      </c>
+      <c r="W383" s="67">
+        <v>307507</v>
+      </c>
+      <c r="X383" s="67">
+        <v>3099578</v>
+      </c>
+      <c r="Y383" s="67">
+        <v>1277853</v>
+      </c>
+      <c r="Z383" s="67">
+        <v>319373</v>
+      </c>
+      <c r="AA383" s="67">
+        <v>206736</v>
+      </c>
+      <c r="AB383" s="67">
+        <v>92519</v>
+      </c>
+      <c r="AC383" s="67">
+        <v>415062</v>
+      </c>
+      <c r="AD383" s="67">
+        <v>177465</v>
+      </c>
+      <c r="AE383" s="67">
+        <v>66204</v>
+      </c>
+      <c r="AF383" s="67">
+        <v>55977</v>
+      </c>
+      <c r="AG383" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH383" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI383" s="71"/>
+    </row>
+    <row r="384" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A384" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B384" s="67">
+        <v>22271966</v>
+      </c>
+      <c r="C384" s="68">
+        <f>O384/R384</f>
+        <v>3.7345639535235158</v>
+      </c>
+      <c r="D384" s="69">
+        <f>N384/K384</f>
+        <v>4.7464822928999541E-2</v>
+      </c>
+      <c r="E384" s="69">
+        <f>I384/L384</f>
+        <v>19.932599395212883</v>
+      </c>
+      <c r="F384" s="70">
+        <f>H384/((R384-S384)/365)</f>
+        <v>1342.1620084273684</v>
+      </c>
+      <c r="G384" s="67">
+        <v>689105</v>
+      </c>
+      <c r="H384" s="67">
+        <v>21187557</v>
+      </c>
+      <c r="I384" s="67">
+        <v>22121438</v>
+      </c>
+      <c r="J384" s="67">
+        <v>1260341</v>
+      </c>
+      <c r="K384" s="67">
+        <v>23381779</v>
+      </c>
+      <c r="L384" s="73">
+        <v>1109812</v>
+      </c>
+      <c r="M384" s="67">
+        <v>0</v>
+      </c>
+      <c r="N384" s="73">
+        <v>1109812</v>
+      </c>
+      <c r="O384" s="67">
+        <v>21623861</v>
+      </c>
+      <c r="P384" s="67">
+        <v>648105</v>
+      </c>
+      <c r="Q384" s="73">
+        <v>22271966</v>
+      </c>
+      <c r="R384" s="67">
+        <v>5790197</v>
+      </c>
+      <c r="S384" s="67">
+        <v>28256</v>
+      </c>
+      <c r="T384" s="67">
+        <v>-239824</v>
+      </c>
+      <c r="U384" s="67">
+        <v>4412239</v>
+      </c>
+      <c r="V384" s="67">
+        <v>1983758</v>
+      </c>
+      <c r="W384" s="67">
+        <v>0</v>
+      </c>
+      <c r="X384" s="67">
+        <v>6395998</v>
+      </c>
+      <c r="Y384" s="67">
+        <v>2430117</v>
+      </c>
+      <c r="Z384" s="67">
+        <v>762475</v>
+      </c>
+      <c r="AA384" s="67">
+        <v>152849</v>
+      </c>
+      <c r="AB384" s="67">
+        <v>519473</v>
+      </c>
+      <c r="AC384" s="67">
+        <v>504913</v>
+      </c>
+      <c r="AD384" s="67">
+        <v>824212</v>
+      </c>
+      <c r="AE384" s="67">
+        <v>466673</v>
+      </c>
+      <c r="AF384" s="67">
+        <v>129485</v>
+      </c>
+      <c r="AG384" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH384" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI384" s="71"/>
+    </row>
+    <row r="385" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A385" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B385" s="67">
+        <v>37882211.68</v>
+      </c>
+      <c r="C385" s="68">
+        <f>O385/R385</f>
+        <v>1.4289306382604297</v>
+      </c>
+      <c r="D385" s="69">
+        <f>N385/K385</f>
+        <v>0.10072874340062454</v>
+      </c>
+      <c r="E385" s="69">
+        <f>I385/L385</f>
+        <v>8.5611744616268783</v>
+      </c>
+      <c r="F385" s="70">
+        <f>H385/((R385-S385)/365)</f>
+        <v>377.88744581229906</v>
+      </c>
+      <c r="G385" s="67">
+        <v>0</v>
+      </c>
+      <c r="H385" s="67">
+        <v>27446930.199999999</v>
+      </c>
+      <c r="I385" s="67">
+        <v>32226511.920000002</v>
+      </c>
+      <c r="J385" s="67">
+        <v>9898944</v>
+      </c>
+      <c r="K385" s="67">
+        <v>42125455.920000002</v>
+      </c>
+      <c r="L385" s="67">
+        <v>3764262.96</v>
+      </c>
+      <c r="M385" s="67">
+        <v>478981.28</v>
+      </c>
+      <c r="N385" s="67">
+        <v>4243244.24</v>
+      </c>
+      <c r="O385" s="67">
+        <v>37882211.68</v>
+      </c>
+      <c r="P385" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q385" s="67">
+        <v>37882211.68</v>
+      </c>
+      <c r="R385" s="67">
+        <v>26510882.100000001</v>
+      </c>
+      <c r="S385" s="67">
+        <v>0</v>
+      </c>
+      <c r="T385" s="67">
+        <v>-500684.95</v>
+      </c>
+      <c r="U385" s="67">
+        <v>0</v>
+      </c>
+      <c r="V385" s="67">
+        <v>0</v>
+      </c>
+      <c r="W385" s="67">
+        <v>0</v>
+      </c>
+      <c r="X385" s="67">
+        <v>24736809.440000001</v>
+      </c>
+      <c r="Y385" s="67">
+        <v>15411915.720000001</v>
+      </c>
+      <c r="Z385" s="67">
+        <v>15411915.720000001</v>
+      </c>
+      <c r="AA385" s="67">
+        <v>1048884.3999999999</v>
+      </c>
+      <c r="AB385" s="67">
+        <v>2265534.19</v>
+      </c>
+      <c r="AC385" s="67">
+        <v>6427030.7699999996</v>
+      </c>
+      <c r="AD385" s="67">
+        <v>852179.3</v>
+      </c>
+      <c r="AE385" s="67">
+        <v>85080</v>
+      </c>
+      <c r="AF385" s="67">
+        <v>420257.72</v>
+      </c>
+      <c r="AG385" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH385" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI385" s="71"/>
+    </row>
+    <row r="386" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A386" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B386" s="67">
+        <v>7090217</v>
+      </c>
+      <c r="C386" s="68">
+        <f>O386/R386</f>
+        <v>2.4315440069775494</v>
+      </c>
+      <c r="D386" s="69">
+        <f>N386/K386</f>
+        <v>5.2771060837223223E-2</v>
+      </c>
+      <c r="E386" s="69">
+        <f>I386/L386</f>
+        <v>17.14093057521082</v>
+      </c>
+      <c r="F386" s="70">
+        <f>H386/((R386-S386)/365)</f>
+        <v>828.92271579463829</v>
+      </c>
+      <c r="G386" s="67">
+        <v>1219606</v>
+      </c>
+      <c r="H386" s="67">
+        <v>5267495</v>
+      </c>
+      <c r="I386" s="67">
+        <v>6770719</v>
+      </c>
+      <c r="J386" s="67">
+        <v>714501</v>
+      </c>
+      <c r="K386" s="67">
+        <v>7485220</v>
+      </c>
+      <c r="L386" s="67">
+        <v>395003</v>
+      </c>
+      <c r="M386" s="67">
+        <v>0</v>
+      </c>
+      <c r="N386" s="67">
+        <v>395003</v>
+      </c>
+      <c r="O386" s="67">
+        <v>5639818</v>
+      </c>
+      <c r="P386" s="67">
+        <v>1450399</v>
+      </c>
+      <c r="Q386" s="67">
+        <v>7090217</v>
+      </c>
+      <c r="R386" s="67">
+        <v>2319439</v>
+      </c>
+      <c r="S386" s="67">
+        <v>0</v>
+      </c>
+      <c r="T386" s="67">
+        <v>-530473</v>
+      </c>
+      <c r="U386" s="67">
+        <v>1685774</v>
+      </c>
+      <c r="V386" s="67">
+        <v>316894</v>
+      </c>
+      <c r="W386" s="67">
+        <v>0</v>
+      </c>
+      <c r="X386" s="67">
+        <v>2002668</v>
+      </c>
+      <c r="Y386" s="67">
+        <v>1137733</v>
+      </c>
+      <c r="Z386" s="67">
+        <v>368837</v>
+      </c>
+      <c r="AA386" s="67">
+        <v>163063</v>
+      </c>
+      <c r="AB386" s="67">
+        <v>79039</v>
+      </c>
+      <c r="AC386" s="67">
+        <v>43232</v>
+      </c>
+      <c r="AD386" s="67">
+        <v>107386</v>
+      </c>
+      <c r="AE386" s="67">
+        <v>133877</v>
+      </c>
+      <c r="AF386" s="67">
+        <v>286272</v>
+      </c>
+      <c r="AG386" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH386" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI386" s="71"/>
+    </row>
+    <row r="387" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A387" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B387" s="67">
+        <v>10482291</v>
+      </c>
+      <c r="C387" s="68">
+        <f>O387/R387</f>
+        <v>2.0023926036169288</v>
+      </c>
+      <c r="D387" s="69">
+        <f>N387/K387</f>
+        <v>6.6858263145633298E-2</v>
+      </c>
+      <c r="E387" s="69">
+        <f>I387/L387</f>
+        <v>14.825032188655479</v>
+      </c>
+      <c r="F387" s="70">
+        <f>H387/((R387-S387)/365)</f>
+        <v>738.67263448991969</v>
+      </c>
+      <c r="G387" s="67">
+        <v>0</v>
+      </c>
+      <c r="H387" s="67">
+        <v>10431199</v>
+      </c>
+      <c r="I387" s="67">
+        <v>11134207</v>
+      </c>
+      <c r="J387" s="67">
+        <v>99124</v>
+      </c>
+      <c r="K387" s="67">
+        <v>11233331</v>
+      </c>
+      <c r="L387" s="67">
+        <v>751041</v>
+      </c>
+      <c r="M387" s="67">
+        <v>0</v>
+      </c>
+      <c r="N387" s="67">
+        <v>751041</v>
+      </c>
+      <c r="O387" s="67">
+        <v>10482291</v>
+      </c>
+      <c r="P387" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q387" s="67">
+        <v>10482291</v>
+      </c>
+      <c r="R387" s="67">
+        <v>5234883</v>
+      </c>
+      <c r="S387" s="67">
+        <v>80519</v>
+      </c>
+      <c r="T387" s="67">
+        <v>-80519</v>
+      </c>
+      <c r="U387" s="67">
+        <v>2974521</v>
+      </c>
+      <c r="V387" s="67">
+        <v>2066554</v>
+      </c>
+      <c r="W387" s="67">
+        <v>775546</v>
+      </c>
+      <c r="X387" s="67">
+        <v>5816621</v>
+      </c>
+      <c r="Y387" s="67">
+        <v>2210591</v>
+      </c>
+      <c r="Z387" s="67">
+        <v>810907</v>
+      </c>
+      <c r="AA387" s="67">
+        <v>421961</v>
+      </c>
+      <c r="AB387" s="67">
+        <v>534733</v>
+      </c>
+      <c r="AC387" s="67">
+        <v>542394</v>
+      </c>
+      <c r="AD387" s="67">
+        <v>616063</v>
+      </c>
+      <c r="AE387" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF387" s="67">
+        <v>98235</v>
+      </c>
+      <c r="AG387" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH387" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI387" s="71"/>
+    </row>
+    <row r="388" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A388" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B388" s="67">
+        <v>2880362</v>
+      </c>
+      <c r="C388" s="68">
+        <f>O388/R388</f>
+        <v>0.24390351305453287</v>
+      </c>
+      <c r="D388" s="69">
+        <f>N388/K388</f>
+        <v>0.14856027171712097</v>
+      </c>
+      <c r="E388" s="69">
+        <f>I388/L388</f>
+        <v>11.69186128901808</v>
+      </c>
+      <c r="F388" s="70">
+        <f>H388/((R388-S388)/365)</f>
+        <v>294.79248490835886</v>
+      </c>
+      <c r="G388" s="67">
+        <v>1500</v>
+      </c>
+      <c r="H388" s="67">
+        <v>2109216</v>
+      </c>
+      <c r="I388" s="67">
+        <v>3382701</v>
+      </c>
+      <c r="J388" s="67">
+        <v>229</v>
+      </c>
+      <c r="K388" s="67">
+        <v>3382930</v>
+      </c>
+      <c r="L388" s="67">
+        <v>289321</v>
+      </c>
+      <c r="M388" s="67">
+        <v>213248</v>
+      </c>
+      <c r="N388" s="67">
+        <v>502569</v>
+      </c>
+      <c r="O388" s="67">
+        <v>636965</v>
+      </c>
+      <c r="P388" s="67">
+        <v>2243397</v>
+      </c>
+      <c r="Q388" s="67">
+        <v>2880362</v>
+      </c>
+      <c r="R388" s="67">
+        <v>2611545</v>
+      </c>
+      <c r="S388" s="67">
+        <v>0</v>
+      </c>
+      <c r="T388" s="67">
+        <v>0</v>
+      </c>
+      <c r="U388" s="67">
+        <v>1301404</v>
+      </c>
+      <c r="V388" s="67">
+        <v>947638</v>
+      </c>
+      <c r="W388" s="67">
+        <v>128416</v>
+      </c>
+      <c r="X388" s="67">
+        <v>2377458</v>
+      </c>
+      <c r="Y388" s="67">
+        <v>1355542</v>
+      </c>
+      <c r="Z388" s="67">
+        <v>336710</v>
+      </c>
+      <c r="AA388" s="67">
+        <v>148108</v>
+      </c>
+      <c r="AB388" s="67">
+        <v>158926</v>
+      </c>
+      <c r="AC388" s="67">
+        <v>350037</v>
+      </c>
+      <c r="AD388" s="67">
+        <v>145498</v>
+      </c>
+      <c r="AE388" s="67">
+        <v>27555</v>
+      </c>
+      <c r="AF388" s="67">
+        <v>89070</v>
+      </c>
+      <c r="AG388" s="67">
+        <v>98</v>
+      </c>
+      <c r="AH388" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI388" s="71"/>
+    </row>
+    <row r="389" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A389" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B389" s="67">
+        <v>1677343</v>
+      </c>
+      <c r="C389" s="68">
+        <f>O389/R389</f>
+        <v>2.3644172473559477</v>
+      </c>
+      <c r="D389" s="69">
+        <f>N389/K389</f>
+        <v>0.12416507234995322</v>
+      </c>
+      <c r="E389" s="69">
+        <f>I389/L389</f>
+        <v>7.4121357651402686</v>
+      </c>
+      <c r="F389" s="70">
+        <f>H389/((R389-S389)/365)</f>
+        <v>895.43383771290019</v>
+      </c>
+      <c r="G389" s="67">
+        <v>0</v>
+      </c>
+      <c r="H389" s="67">
+        <v>1732191</v>
+      </c>
+      <c r="I389" s="67">
+        <v>1762554</v>
+      </c>
+      <c r="J389" s="67">
+        <v>152582</v>
+      </c>
+      <c r="K389" s="67">
+        <v>1915136</v>
+      </c>
+      <c r="L389" s="67">
+        <v>237793</v>
+      </c>
+      <c r="M389" s="67">
+        <v>0</v>
+      </c>
+      <c r="N389" s="67">
+        <v>237793</v>
+      </c>
+      <c r="O389" s="67">
+        <v>1671111</v>
+      </c>
+      <c r="P389" s="67">
+        <v>6232</v>
+      </c>
+      <c r="Q389" s="67">
+        <v>1677343</v>
+      </c>
+      <c r="R389" s="67">
+        <v>706775</v>
+      </c>
+      <c r="S389" s="67">
+        <v>693</v>
+      </c>
+      <c r="T389" s="67">
+        <v>-2078</v>
+      </c>
+      <c r="U389" s="67">
+        <v>557940</v>
+      </c>
+      <c r="V389" s="67">
+        <v>230526</v>
+      </c>
+      <c r="W389" s="67">
+        <v>65765</v>
+      </c>
+      <c r="X389" s="67">
+        <v>854231</v>
+      </c>
+      <c r="Y389" s="67">
+        <v>335613</v>
+      </c>
+      <c r="Z389" s="67">
+        <v>59188</v>
+      </c>
+      <c r="AA389" s="67">
+        <v>70571</v>
+      </c>
+      <c r="AB389" s="67">
+        <v>58138</v>
+      </c>
+      <c r="AC389" s="67">
+        <v>106481</v>
+      </c>
+      <c r="AD389" s="67">
+        <v>53487</v>
+      </c>
+      <c r="AE389" s="67">
+        <v>693</v>
+      </c>
+      <c r="AF389" s="67">
+        <v>22603</v>
+      </c>
+      <c r="AG389" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH389" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI389" s="71"/>
+    </row>
+    <row r="390" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A390" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B390" s="67">
+        <v>6676432</v>
+      </c>
+      <c r="C390" s="68">
+        <f>O390/R390</f>
+        <v>2.8121866453365412</v>
+      </c>
+      <c r="D390" s="69">
+        <f>N390/K390</f>
+        <v>2.5015154659303835E-2</v>
+      </c>
+      <c r="E390" s="69">
+        <f>I390/L390</f>
+        <v>32.909753235608328</v>
+      </c>
+      <c r="F390" s="70">
+        <f>H390/((R390-S390)/365)</f>
+        <v>788.40567000560634</v>
+      </c>
+      <c r="G390" s="67">
+        <v>0</v>
+      </c>
+      <c r="H390" s="67">
+        <v>5128108</v>
+      </c>
+      <c r="I390" s="67">
+        <v>5637342</v>
+      </c>
+      <c r="J390" s="67">
+        <v>1210387</v>
+      </c>
+      <c r="K390" s="67">
+        <v>6847729</v>
+      </c>
+      <c r="L390" s="67">
+        <v>171297</v>
+      </c>
+      <c r="M390" s="67">
+        <v>0</v>
+      </c>
+      <c r="N390" s="67">
+        <v>171297</v>
+      </c>
+      <c r="O390" s="67">
+        <v>6676432</v>
+      </c>
+      <c r="P390" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q390" s="67">
+        <v>6676432</v>
+      </c>
+      <c r="R390" s="67">
+        <v>2374107</v>
+      </c>
+      <c r="S390" s="67">
+        <v>0</v>
+      </c>
+      <c r="T390" s="67">
+        <v>-1358509</v>
+      </c>
+      <c r="U390" s="67">
+        <v>1036936</v>
+      </c>
+      <c r="V390" s="67">
+        <v>583698</v>
+      </c>
+      <c r="W390" s="67">
+        <v>198234</v>
+      </c>
+      <c r="X390" s="67">
+        <v>1818868</v>
+      </c>
+      <c r="Y390" s="67">
+        <v>1104139</v>
+      </c>
+      <c r="Z390" s="67">
+        <v>173292</v>
+      </c>
+      <c r="AA390" s="67">
+        <v>280850</v>
+      </c>
+      <c r="AB390" s="67">
+        <v>161626</v>
+      </c>
+      <c r="AC390" s="67">
+        <v>179708</v>
+      </c>
+      <c r="AD390" s="67">
+        <v>402397</v>
+      </c>
+      <c r="AE390" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF390" s="67">
+        <v>72096</v>
+      </c>
+      <c r="AG390" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH390" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI390" s="71"/>
+    </row>
+    <row r="391" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A391" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B391" s="67">
+        <v>597408</v>
+      </c>
+      <c r="C391" s="68">
+        <f>O391/R391</f>
+        <v>0.29286715755002796</v>
+      </c>
+      <c r="D391" s="69">
+        <f>N391/K391</f>
+        <v>0.79118143098575799</v>
+      </c>
+      <c r="E391" s="69">
+        <f>I391/L391</f>
+        <v>1.2331420502967325</v>
+      </c>
+      <c r="F391" s="70">
+        <f>H391/((R391-S391)/365)</f>
+        <v>410.23608728049959</v>
+      </c>
+      <c r="G391" s="67">
+        <v>0</v>
+      </c>
+      <c r="H391" s="67">
+        <v>2292669</v>
+      </c>
+      <c r="I391" s="67">
+        <v>2791201</v>
+      </c>
+      <c r="J391" s="67">
+        <v>69694</v>
+      </c>
+      <c r="K391" s="67">
+        <v>2860895</v>
+      </c>
+      <c r="L391" s="67">
+        <v>2263487</v>
+      </c>
+      <c r="M391" s="67">
+        <v>0</v>
+      </c>
+      <c r="N391" s="67">
+        <v>2263487</v>
+      </c>
+      <c r="O391" s="67">
+        <v>597408</v>
+      </c>
+      <c r="P391" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q391" s="67">
+        <v>597408</v>
+      </c>
+      <c r="R391" s="67">
+        <v>2039860</v>
+      </c>
+      <c r="S391" s="67">
+        <v>0</v>
+      </c>
+      <c r="T391" s="67">
+        <v>-71426</v>
+      </c>
+      <c r="U391" s="67">
+        <v>999601</v>
+      </c>
+      <c r="V391" s="67">
+        <v>560204</v>
+      </c>
+      <c r="W391" s="67">
+        <v>302891</v>
+      </c>
+      <c r="X391" s="67">
+        <v>1862696</v>
+      </c>
+      <c r="Y391" s="67">
+        <v>957426</v>
+      </c>
+      <c r="Z391" s="67">
+        <v>209459</v>
+      </c>
+      <c r="AA391" s="67">
+        <v>272545</v>
+      </c>
+      <c r="AB391" s="67">
+        <v>67161</v>
+      </c>
+      <c r="AC391" s="67">
+        <v>302651</v>
+      </c>
+      <c r="AD391" s="67">
+        <v>191395</v>
+      </c>
+      <c r="AE391" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF391" s="67">
+        <v>39223</v>
+      </c>
+      <c r="AG391" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH391" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI391" s="71"/>
+    </row>
+    <row r="392" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A392" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B392" s="67">
+        <v>19828912</v>
+      </c>
+      <c r="C392" s="68">
+        <f>O392/R392</f>
+        <v>3.0130619423304581</v>
+      </c>
+      <c r="D392" s="69">
+        <f>N392/K392</f>
+        <v>0.20975673598791528</v>
+      </c>
+      <c r="E392" s="69">
+        <f>I392/L392</f>
+        <v>16.311811412703367</v>
+      </c>
+      <c r="F392" s="70">
+        <f>H392/((R392-S392)/365)</f>
+        <v>317.32007243887324</v>
+      </c>
+      <c r="G392" s="67">
+        <v>260900</v>
+      </c>
+      <c r="H392" s="67">
+        <v>5539380</v>
+      </c>
+      <c r="I392" s="67">
+        <v>22051318</v>
+      </c>
+      <c r="J392" s="67">
+        <v>3040844</v>
+      </c>
+      <c r="K392" s="67">
+        <v>25092162</v>
+      </c>
+      <c r="L392" s="67">
+        <v>1351862</v>
+      </c>
+      <c r="M392" s="67">
+        <v>3911388</v>
+      </c>
+      <c r="N392" s="67">
+        <v>5263250</v>
+      </c>
+      <c r="O392" s="67">
+        <v>19198378</v>
+      </c>
+      <c r="P392" s="67">
+        <v>630552</v>
+      </c>
+      <c r="Q392" s="67">
+        <v>19828912</v>
+      </c>
+      <c r="R392" s="67">
+        <v>6371717</v>
+      </c>
+      <c r="S392" s="67">
+        <v>0</v>
+      </c>
+      <c r="T392" s="67">
+        <v>-3158409</v>
+      </c>
+      <c r="U392" s="67">
+        <v>5771709</v>
+      </c>
+      <c r="V392" s="67">
+        <v>1810065</v>
+      </c>
+      <c r="W392" s="67">
+        <v>0</v>
+      </c>
+      <c r="X392" s="67">
+        <v>7581774</v>
+      </c>
+      <c r="Y392" s="67">
+        <v>3261848</v>
+      </c>
+      <c r="Z392" s="67">
+        <v>1150694</v>
+      </c>
+      <c r="AA392" s="67">
+        <v>209754</v>
+      </c>
+      <c r="AB392" s="67">
+        <v>417471</v>
+      </c>
+      <c r="AC392" s="67">
+        <v>437228</v>
+      </c>
+      <c r="AD392" s="67">
+        <v>487107</v>
+      </c>
+      <c r="AE392" s="67">
+        <v>51738</v>
+      </c>
+      <c r="AF392" s="67">
+        <v>355877</v>
+      </c>
+      <c r="AG392" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH392" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI392" s="71"/>
+    </row>
+    <row r="393" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A393" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B393" s="67">
+        <v>8511233</v>
+      </c>
+      <c r="C393" s="68">
+        <f>O393/R393</f>
+        <v>1.4922832206354295</v>
+      </c>
+      <c r="D393" s="69">
+        <f>N393/K393</f>
+        <v>0.62542746683543904</v>
+      </c>
+      <c r="E393" s="69">
+        <f>I393/L393</f>
+        <v>7.2453294729278497</v>
+      </c>
+      <c r="F393" s="70">
+        <f>H393/((R393-S393)/365)</f>
+        <v>924.86422792219491</v>
+      </c>
+      <c r="G393" s="67">
+        <v>208681</v>
+      </c>
+      <c r="H393" s="67">
+        <v>8397192</v>
+      </c>
+      <c r="I393" s="67">
+        <v>8913697</v>
+      </c>
+      <c r="J393" s="67">
+        <v>13808826</v>
+      </c>
+      <c r="K393" s="67">
+        <v>22722523</v>
+      </c>
+      <c r="L393" s="67">
+        <v>1230268</v>
+      </c>
+      <c r="M393" s="67">
+        <v>12981022</v>
+      </c>
+      <c r="N393" s="67">
+        <v>14211290</v>
+      </c>
+      <c r="O393" s="67">
+        <v>4975032</v>
+      </c>
+      <c r="P393" s="67">
+        <v>3536201</v>
+      </c>
+      <c r="Q393" s="67">
+        <v>8511233</v>
+      </c>
+      <c r="R393" s="67">
+        <v>3333839</v>
+      </c>
+      <c r="S393" s="67">
+        <v>19866</v>
+      </c>
+      <c r="T393" s="67">
+        <v>-3666036</v>
+      </c>
+      <c r="U393" s="67">
+        <v>2201802</v>
+      </c>
+      <c r="V393" s="67">
+        <v>1395512</v>
+      </c>
+      <c r="W393" s="67">
+        <v>136133</v>
+      </c>
+      <c r="X393" s="67">
+        <v>3733447</v>
+      </c>
+      <c r="Y393" s="67">
+        <v>1654455</v>
+      </c>
+      <c r="Z393" s="67">
+        <v>532161</v>
+      </c>
+      <c r="AA393" s="67">
+        <v>116187</v>
+      </c>
+      <c r="AB393" s="67">
+        <v>430807</v>
+      </c>
+      <c r="AC393" s="67">
+        <v>359373</v>
+      </c>
+      <c r="AD393" s="67">
+        <v>107910</v>
+      </c>
+      <c r="AE393" s="67">
+        <v>22026</v>
+      </c>
+      <c r="AF393" s="67">
+        <v>110920</v>
+      </c>
+      <c r="AG393" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH393" s="66" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
